--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1737.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1737.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6891487997728835</v>
+        <v>1.049662113189697</v>
       </c>
       <c r="B1">
-        <v>1.519348182730392</v>
+        <v>1.236498236656189</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.134970102081502</v>
+        <v>1.664909839630127</v>
       </c>
       <c r="E1">
-        <v>1.451286229294162</v>
+        <v>1.00478720664978</v>
       </c>
     </row>
   </sheetData>
